--- a/project/preprocessing/DataGenerator/category_code.xlsx
+++ b/project/preprocessing/DataGenerator/category_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egn\Desktop\DataGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pgm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8473AE-9EEE-4F9F-BDA2-23437F12A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5446977-F32C-4769-BA13-52D08C031D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>coupang</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,34 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캔/파우치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덴탈껌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건조간식/육포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동결건조간식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비스켓/시리얼/쿠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빵/케이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강아지 소프트사료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +60,146 @@
   </si>
   <si>
     <t>강아지 건식사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 캔/파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 덴탈껌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 건조간식/육포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 동결건조간식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 비스켓/시리얼/쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 빵/케이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 음료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 하우스/울타리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 급식기/급수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 의류/패션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 배변용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 미용/목욕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 장난감/훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 이동장/외출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 건식사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 소프트사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 건조생식사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 화식사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 분유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 캔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 동결건조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 수제간식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 져키/스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 통살/소시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 스낵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 캣닢/캣그라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 음료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 캣타워/스크래쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 하우스/방석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 급식기/급수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 의류/패션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 배변용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 미용/목욕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 장난감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,7 +550,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>445726</v>
@@ -449,7 +561,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>445727</v>
@@ -460,7 +572,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>445728</v>
@@ -471,7 +583,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>445729</v>
@@ -482,7 +594,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>445730</v>
@@ -493,7 +605,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>445731</v>
@@ -504,7 +616,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>118975</v>
@@ -515,7 +627,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>385001</v>
@@ -526,7 +638,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>385002</v>
@@ -537,7 +649,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>385003</v>
@@ -548,7 +660,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>118974</v>
@@ -559,7 +671,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>225064</v>
@@ -570,13 +682,321 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>118980</v>
       </c>
       <c r="C14">
         <v>50006645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>486318</v>
+      </c>
+      <c r="C15">
+        <v>50006655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>118920</v>
+      </c>
+      <c r="C16">
+        <v>50006724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>118919</v>
+      </c>
+      <c r="C17">
+        <v>50006734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>118926</v>
+      </c>
+      <c r="C18">
+        <v>50006728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>118916</v>
+      </c>
+      <c r="C19">
+        <v>50006646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>118917</v>
+      </c>
+      <c r="C20">
+        <v>50006662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>118923</v>
+      </c>
+      <c r="C21">
+        <v>50006673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>118922</v>
+      </c>
+      <c r="C22">
+        <v>50006747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>445860</v>
+      </c>
+      <c r="C23">
+        <v>50006679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>445861</v>
+      </c>
+      <c r="C24">
+        <v>50006678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>445862</v>
+      </c>
+      <c r="C25">
+        <v>50008388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>445863</v>
+      </c>
+      <c r="C26">
+        <v>50006678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>446151</v>
+      </c>
+      <c r="C27">
+        <v>50006683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>119522</v>
+      </c>
+      <c r="C28">
+        <v>50006684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>120216</v>
+      </c>
+      <c r="C29">
+        <v>50006688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>119501</v>
+      </c>
+      <c r="C30">
+        <v>50006686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>119502</v>
+      </c>
+      <c r="C31">
+        <v>50006689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>119503</v>
+      </c>
+      <c r="C32">
+        <v>50006690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>119504</v>
+      </c>
+      <c r="C33">
+        <v>50006691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>119505</v>
+      </c>
+      <c r="C34">
+        <v>50006692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>119506</v>
+      </c>
+      <c r="C35">
+        <v>50006693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>119567</v>
+      </c>
+      <c r="C36">
+        <v>50006717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>119562</v>
+      </c>
+      <c r="C37">
+        <v>50006724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>119561</v>
+      </c>
+      <c r="C38">
+        <v>50006734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>157054</v>
+      </c>
+      <c r="C39">
+        <v>50006728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>119558</v>
+      </c>
+      <c r="C40">
+        <v>50006694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>385076</v>
+      </c>
+      <c r="C41">
+        <v>50006662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>119568</v>
+      </c>
+      <c r="C42">
+        <v>50006718</v>
       </c>
     </row>
   </sheetData>

--- a/project/preprocessing/DataGenerator/category_code.xlsx
+++ b/project/preprocessing/DataGenerator/category_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pgm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egn\Desktop\GitHub\KUSW\project\preprocessing\DataGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5446977-F32C-4769-BA13-52D08C031D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3406824-3323-4C50-A332-59F115118A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>coupang</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
   </si>
   <si>
     <t>고양이 하우스/방석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이 급식기/급수기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -949,10 +945,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>119561</v>
+        <v>157054</v>
       </c>
       <c r="C38">
-        <v>50006734</v>
+        <v>50006728</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -960,10 +956,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>157054</v>
+        <v>119558</v>
       </c>
       <c r="C39">
-        <v>50006728</v>
+        <v>50006694</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,10 +967,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>119558</v>
+        <v>385076</v>
       </c>
       <c r="C40">
-        <v>50006694</v>
+        <v>50006662</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,20 +978,9 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>385076</v>
+        <v>119568</v>
       </c>
       <c r="C41">
-        <v>50006662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>119568</v>
-      </c>
-      <c r="C42">
         <v>50006718</v>
       </c>
     </row>

--- a/project/preprocessing/DataGenerator/category_code.xlsx
+++ b/project/preprocessing/DataGenerator/category_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egn\Desktop\GitHub\KUSW\project\preprocessing\DataGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuyh\Desktop\민지\고려대학교 교육\프로젝트\project\preprocessing\DataGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3406824-3323-4C50-A332-59F115118A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4534083-DF10-49B3-B8D3-59B4BA9F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11244" yWindow="4536" windowWidth="12192" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>coupang</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강아지 건조/생식사요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강아지 화식사료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,130 @@
   </si>
   <si>
     <t>고양이 장난감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 건강관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 급식기/급수기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 이동장/외출용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 껌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 파우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 젤리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 건강관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 배변봉투/삽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 물티슈/크리너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 기저귀/매너벨트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 입마개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 가슴줄/하네스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 목줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 리드줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 자동줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 인식표/목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 이동가방/캐리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 져키/트릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 테린/화식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 테린/화식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 건강보조제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 영양제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 건강보조제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 펫캠/가전용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 펫캠/가전용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 기능성사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 기능성사료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 건조/생식사료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,19 +641,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -544,9 +664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>445726</v>
@@ -555,7 +675,7 @@
         <v>50006631</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +686,7 @@
         <v>50006632</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -577,9 +697,9 @@
         <v>50006633</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>445729</v>
@@ -588,9 +708,9 @@
         <v>50008289</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>445730</v>
@@ -599,9 +719,9 @@
         <v>50006630</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>445731</v>
@@ -610,9 +730,9 @@
         <v>50006635</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>118975</v>
@@ -621,9 +741,9 @@
         <v>50006642</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>385001</v>
@@ -632,9 +752,9 @@
         <v>50006637</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>385002</v>
@@ -643,9 +763,9 @@
         <v>50006638</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>385003</v>
@@ -654,9 +774,9 @@
         <v>50006641</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>118974</v>
@@ -665,9 +785,9 @@
         <v>50006640</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>225064</v>
@@ -676,9 +796,9 @@
         <v>50008408</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>118980</v>
@@ -687,31 +807,31 @@
         <v>50006645</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>486318</v>
+        <v>486319</v>
       </c>
       <c r="C15">
         <v>50006655</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>118920</v>
       </c>
       <c r="C16">
-        <v>50006724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50006726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>118919</v>
@@ -720,9 +840,9 @@
         <v>50006734</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>118926</v>
@@ -731,9 +851,9 @@
         <v>50006728</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>118916</v>
@@ -742,9 +862,9 @@
         <v>50006646</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>118917</v>
@@ -753,9 +873,9 @@
         <v>50006662</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>118923</v>
@@ -764,9 +884,9 @@
         <v>50006673</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>118922</v>
@@ -775,9 +895,9 @@
         <v>50006747</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>445860</v>
@@ -786,9 +906,9 @@
         <v>50006679</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>445861</v>
@@ -797,9 +917,9 @@
         <v>50006678</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>445862</v>
@@ -808,20 +928,20 @@
         <v>50008388</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>445863</v>
       </c>
       <c r="C26">
-        <v>50006678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50006739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>446151</v>
@@ -830,9 +950,9 @@
         <v>50006683</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>119522</v>
@@ -841,9 +961,9 @@
         <v>50006684</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>120216</v>
@@ -852,9 +972,9 @@
         <v>50006688</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>119501</v>
@@ -863,9 +983,9 @@
         <v>50006686</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>119502</v>
@@ -874,9 +994,9 @@
         <v>50006689</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>119503</v>
@@ -885,9 +1005,9 @@
         <v>50006690</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>119504</v>
@@ -896,9 +1016,9 @@
         <v>50006691</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>119505</v>
@@ -907,9 +1027,9 @@
         <v>50006692</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>119506</v>
@@ -918,9 +1038,9 @@
         <v>50006693</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>119567</v>
@@ -929,9 +1049,9 @@
         <v>50006717</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>119562</v>
@@ -940,20 +1060,20 @@
         <v>50006724</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>157054</v>
       </c>
       <c r="C38">
-        <v>50006728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50006731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>119558</v>
@@ -962,26 +1082,348 @@
         <v>50006694</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>385076</v>
       </c>
       <c r="C40">
-        <v>50006662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50006666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>119568</v>
       </c>
       <c r="C41">
         <v>50006718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>119499</v>
+      </c>
+      <c r="C42">
+        <v>50006685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>119559</v>
+      </c>
+      <c r="C43">
+        <v>50006704</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>119561</v>
+      </c>
+      <c r="C44">
+        <v>50006737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>119564</v>
+      </c>
+      <c r="C45">
+        <v>50006740</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>120217</v>
+      </c>
+      <c r="C46">
+        <v>50006687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>225063</v>
+      </c>
+      <c r="C47">
+        <v>50006639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>225106</v>
+      </c>
+      <c r="C48">
+        <v>50000233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>225107</v>
+      </c>
+      <c r="C49">
+        <v>50006392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>373649</v>
+      </c>
+      <c r="C50">
+        <v>50006656</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>381523</v>
+      </c>
+      <c r="C51">
+        <v>50006653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>381526</v>
+      </c>
+      <c r="C52">
+        <v>50008348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>381527</v>
+      </c>
+      <c r="C53">
+        <v>50006649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>381528</v>
+      </c>
+      <c r="C54">
+        <v>50006677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>381529</v>
+      </c>
+      <c r="C55">
+        <v>50006749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>381532</v>
+      </c>
+      <c r="C56">
+        <v>50006748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>381535</v>
+      </c>
+      <c r="C57">
+        <v>50006751</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>381538</v>
+      </c>
+      <c r="C58">
+        <v>50006743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>381539</v>
+      </c>
+      <c r="C59">
+        <v>50006750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>381540</v>
+      </c>
+      <c r="C60">
+        <v>50006741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>385004</v>
+      </c>
+      <c r="C61">
+        <v>50006643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>445733</v>
+      </c>
+      <c r="C62">
+        <v>50006644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>445864</v>
+      </c>
+      <c r="C63">
+        <v>50006680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>486328</v>
+      </c>
+      <c r="C64">
+        <v>50006657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>486332</v>
+      </c>
+      <c r="C65">
+        <v>50006705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>486342</v>
+      </c>
+      <c r="C66">
+        <v>50008488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>486542</v>
+      </c>
+      <c r="C67">
+        <v>50002707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>486545</v>
+      </c>
+      <c r="C68">
+        <v>50002708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>509024</v>
+      </c>
+      <c r="C69">
+        <v>50006634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>509026</v>
+      </c>
+      <c r="C70">
+        <v>50006682</v>
       </c>
     </row>
   </sheetData>

--- a/project/preprocessing/DataGenerator/category_code.xlsx
+++ b/project/preprocessing/DataGenerator/category_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuyh\Desktop\민지\고려대학교 교육\프로젝트\project\preprocessing\DataGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4534083-DF10-49B3-B8D3-59B4BA9F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B0439-2689-4C9F-B710-F44873D5C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11244" yWindow="4536" windowWidth="12192" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>coupang</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>고양이 건강보조제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강아지 펫캠/가전용품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -641,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -699,7 +695,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>445729</v>
@@ -1387,10 +1383,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>486542</v>
+        <v>486545</v>
       </c>
       <c r="C67">
-        <v>50002707</v>
+        <v>50002708</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -1398,10 +1394,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>486545</v>
+        <v>509024</v>
       </c>
       <c r="C68">
-        <v>50002708</v>
+        <v>50006634</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -1409,20 +1405,9 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>509024</v>
+        <v>509026</v>
       </c>
       <c r="C69">
-        <v>50006634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70">
-        <v>509026</v>
-      </c>
-      <c r="C70">
         <v>50006682</v>
       </c>
     </row>
